--- a/medicine/Pharmacie/Antinaupathique/Antinaupathique.xlsx
+++ b/medicine/Pharmacie/Antinaupathique/Antinaupathique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antinaupathiques (ou anti mal de mer) constituent une classe de médicaments destinés à lutter contre le mal des transports ou cinétoses[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antinaupathiques (ou anti mal de mer) constituent une classe de médicaments destinés à lutter contre le mal des transports ou cinétoses.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot vient du grec ancien άντί / anti, « contre », ναυς / naus, « navire » et de παθός / pathos, « épreuve, affection ».
 </t>
@@ -542,12 +556,14 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les antinaupathiques sont proches des antinauséeux[Note 1] ou des antiémétiques[Note 2] bien que certains traitements pharmaceutiques (métoclopramide, prochlorpérazine) soient efficaces pour les nausées et les vomissements mais ne le soient pas pour la cinétose en raison d'étiologies différentes.
 On répertorie : 
-Les antagonistes des récepteurs muscariniques, par exemple l'atropine et la scopolamine[2] ;
-Les antagonistes des récepteurs H1 de l'histamine, par exemple le diménhydrinate[3] et la méclozine.</t>
+Les antagonistes des récepteurs muscariniques, par exemple l'atropine et la scopolamine ;
+Les antagonistes des récepteurs H1 de l'histamine, par exemple le diménhydrinate et la méclozine.</t>
         </is>
       </c>
     </row>
